--- a/Data/5. 채용_게시글.xlsx
+++ b/Data/5. 채용_게시글.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\고병철\Desktop\GitKraken\DatabaseProgrammingTeamProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A3F49D-E6D1-474F-8E24-71FF3CC66D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC1E7F2-E748-4BB2-AF49-8BA9DEDC4210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{911E1E88-E4EF-4624-9AED-A1AB407AA9D7}"/>
   </bookViews>
@@ -1837,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A83B09-813C-4C68-BB69-BC1DA818DB4C}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" workbookViewId="0">
-      <selection activeCell="K102" sqref="K102"/>
+    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
+      <selection activeCell="L98" sqref="L98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1918,7 +1918,7 @@
         <v>22</v>
       </c>
       <c r="K2" s="4">
-        <v>45291</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -1953,7 +1953,7 @@
         <v>25</v>
       </c>
       <c r="K3" s="4">
-        <v>45292</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -1988,7 +1988,7 @@
         <v>25</v>
       </c>
       <c r="K4" s="4">
-        <v>45293</v>
+        <v>45325</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2023,7 +2023,7 @@
         <v>8</v>
       </c>
       <c r="K5" s="4">
-        <v>45294</v>
+        <v>45326</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2058,7 +2058,7 @@
         <v>22</v>
       </c>
       <c r="K6" s="4">
-        <v>45295</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2093,7 +2093,7 @@
         <v>8</v>
       </c>
       <c r="K7" s="4">
-        <v>45296</v>
+        <v>45328</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2128,7 +2128,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="4">
-        <v>45297</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2163,7 +2163,7 @@
         <v>22</v>
       </c>
       <c r="K9" s="4">
-        <v>45298</v>
+        <v>45330</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2198,7 +2198,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="4">
-        <v>45299</v>
+        <v>45331</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2233,7 +2233,7 @@
         <v>25</v>
       </c>
       <c r="K11" s="4">
-        <v>45300</v>
+        <v>45332</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2268,7 +2268,7 @@
         <v>8</v>
       </c>
       <c r="K12" s="4">
-        <v>45301</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2303,7 +2303,7 @@
         <v>22</v>
       </c>
       <c r="K13" s="4">
-        <v>45302</v>
+        <v>45334</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2338,7 +2338,7 @@
         <v>25</v>
       </c>
       <c r="K14" s="4">
-        <v>45303</v>
+        <v>45335</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2373,7 +2373,7 @@
         <v>8</v>
       </c>
       <c r="K15" s="4">
-        <v>45304</v>
+        <v>45336</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2408,7 +2408,7 @@
         <v>25</v>
       </c>
       <c r="K16" s="4">
-        <v>45305</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2443,7 +2443,7 @@
         <v>27</v>
       </c>
       <c r="K17" s="4">
-        <v>45306</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2478,7 +2478,7 @@
         <v>24</v>
       </c>
       <c r="K18" s="4">
-        <v>45307</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2513,7 +2513,7 @@
         <v>8</v>
       </c>
       <c r="K19" s="4">
-        <v>45308</v>
+        <v>45340</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2548,7 +2548,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="4">
-        <v>45309</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2583,7 +2583,7 @@
         <v>25</v>
       </c>
       <c r="K21" s="4">
-        <v>45310</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2618,7 +2618,7 @@
         <v>8</v>
       </c>
       <c r="K22" s="4">
-        <v>45311</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2653,7 +2653,7 @@
         <v>26</v>
       </c>
       <c r="K23" s="4">
-        <v>45312</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2688,7 +2688,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="4">
-        <v>45313</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2723,7 +2723,7 @@
         <v>8</v>
       </c>
       <c r="K25" s="4">
-        <v>45314</v>
+        <v>45346</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2758,7 +2758,7 @@
         <v>25</v>
       </c>
       <c r="K26" s="4">
-        <v>45315</v>
+        <v>45347</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2793,7 +2793,7 @@
         <v>8</v>
       </c>
       <c r="K27" s="4">
-        <v>45316</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2828,7 +2828,7 @@
         <v>23</v>
       </c>
       <c r="K28" s="4">
-        <v>45317</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2863,7 +2863,7 @@
         <v>26</v>
       </c>
       <c r="K29" s="4">
-        <v>45318</v>
+        <v>45350</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2898,7 +2898,7 @@
         <v>8</v>
       </c>
       <c r="K30" s="4">
-        <v>45319</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2933,7 +2933,7 @@
         <v>25</v>
       </c>
       <c r="K31" s="4">
-        <v>45320</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -2968,7 +2968,7 @@
         <v>23</v>
       </c>
       <c r="K32" s="4">
-        <v>45321</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3003,7 +3003,7 @@
         <v>8</v>
       </c>
       <c r="K33" s="4">
-        <v>45322</v>
+        <v>45354</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3038,7 +3038,7 @@
         <v>24</v>
       </c>
       <c r="K34" s="4">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3073,7 +3073,7 @@
         <v>23</v>
       </c>
       <c r="K35" s="4">
-        <v>45324</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3108,7 +3108,7 @@
         <v>8</v>
       </c>
       <c r="K36" s="4">
-        <v>45325</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3143,7 +3143,7 @@
         <v>25</v>
       </c>
       <c r="K37" s="4">
-        <v>45326</v>
+        <v>45358</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3178,7 +3178,7 @@
         <v>26</v>
       </c>
       <c r="K38" s="4">
-        <v>45327</v>
+        <v>45359</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3213,7 +3213,7 @@
         <v>23</v>
       </c>
       <c r="K39" s="4">
-        <v>45328</v>
+        <v>45360</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3248,7 +3248,7 @@
         <v>8</v>
       </c>
       <c r="K40" s="4">
-        <v>45329</v>
+        <v>45361</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3283,7 +3283,7 @@
         <v>25</v>
       </c>
       <c r="K41" s="4">
-        <v>45330</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3318,7 +3318,7 @@
         <v>8</v>
       </c>
       <c r="K42" s="4">
-        <v>45331</v>
+        <v>45363</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3353,7 +3353,7 @@
         <v>23</v>
       </c>
       <c r="K43" s="4">
-        <v>45332</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3388,7 +3388,7 @@
         <v>25</v>
       </c>
       <c r="K44" s="4">
-        <v>45333</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3423,7 +3423,7 @@
         <v>8</v>
       </c>
       <c r="K45" s="4">
-        <v>45334</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3458,7 +3458,7 @@
         <v>25</v>
       </c>
       <c r="K46" s="4">
-        <v>45335</v>
+        <v>45367</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3493,7 +3493,7 @@
         <v>24</v>
       </c>
       <c r="K47" s="4">
-        <v>45336</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3528,7 +3528,7 @@
         <v>25</v>
       </c>
       <c r="K48" s="4">
-        <v>45337</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3563,7 +3563,7 @@
         <v>8</v>
       </c>
       <c r="K49" s="4">
-        <v>45338</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3598,7 +3598,7 @@
         <v>25</v>
       </c>
       <c r="K50" s="4">
-        <v>45339</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3633,7 +3633,7 @@
         <v>25</v>
       </c>
       <c r="K51" s="4">
-        <v>45340</v>
+        <v>45372</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3668,7 +3668,7 @@
         <v>164</v>
       </c>
       <c r="K52" s="4">
-        <v>45341</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3703,7 +3703,7 @@
         <v>24</v>
       </c>
       <c r="K53" s="4">
-        <v>45342</v>
+        <v>45374</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3738,7 +3738,7 @@
         <v>24</v>
       </c>
       <c r="K54" s="4">
-        <v>45343</v>
+        <v>45375</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3773,7 +3773,7 @@
         <v>8</v>
       </c>
       <c r="K55" s="4">
-        <v>45344</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3808,7 +3808,7 @@
         <v>25</v>
       </c>
       <c r="K56" s="4">
-        <v>45345</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3843,7 +3843,7 @@
         <v>8</v>
       </c>
       <c r="K57" s="4">
-        <v>45346</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3878,7 +3878,7 @@
         <v>25</v>
       </c>
       <c r="K58" s="4">
-        <v>45347</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3913,7 +3913,7 @@
         <v>24</v>
       </c>
       <c r="K59" s="4">
-        <v>45348</v>
+        <v>45380</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3948,7 +3948,7 @@
         <v>8</v>
       </c>
       <c r="K60" s="4">
-        <v>45349</v>
+        <v>45381</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -3983,7 +3983,7 @@
         <v>25</v>
       </c>
       <c r="K61" s="4">
-        <v>45350</v>
+        <v>45382</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4018,7 +4018,7 @@
         <v>25</v>
       </c>
       <c r="K62" s="4">
-        <v>45351</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4053,7 +4053,7 @@
         <v>8</v>
       </c>
       <c r="K63" s="4">
-        <v>45352</v>
+        <v>45384</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4088,7 +4088,7 @@
         <v>25</v>
       </c>
       <c r="K64" s="4">
-        <v>45353</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4123,7 +4123,7 @@
         <v>24</v>
       </c>
       <c r="K65" s="4">
-        <v>45354</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4158,7 +4158,7 @@
         <v>8</v>
       </c>
       <c r="K66" s="4">
-        <v>45355</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4193,7 +4193,7 @@
         <v>24</v>
       </c>
       <c r="K67" s="4">
-        <v>45356</v>
+        <v>45388</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4228,7 +4228,7 @@
         <v>25</v>
       </c>
       <c r="K68" s="4">
-        <v>45357</v>
+        <v>45389</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4263,7 +4263,7 @@
         <v>22</v>
       </c>
       <c r="K69" s="4">
-        <v>45358</v>
+        <v>45390</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4298,7 +4298,7 @@
         <v>8</v>
       </c>
       <c r="K70" s="4">
-        <v>45359</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4333,7 +4333,7 @@
         <v>25</v>
       </c>
       <c r="K71" s="4">
-        <v>45360</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4368,7 +4368,7 @@
         <v>8</v>
       </c>
       <c r="K72" s="4">
-        <v>45361</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4403,7 +4403,7 @@
         <v>23</v>
       </c>
       <c r="K73" s="4">
-        <v>45362</v>
+        <v>45394</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4438,7 +4438,7 @@
         <v>24</v>
       </c>
       <c r="K74" s="4">
-        <v>45363</v>
+        <v>45395</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4473,7 +4473,7 @@
         <v>8</v>
       </c>
       <c r="K75" s="4">
-        <v>45364</v>
+        <v>45396</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4508,7 +4508,7 @@
         <v>25</v>
       </c>
       <c r="K76" s="4">
-        <v>45365</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4543,7 +4543,7 @@
         <v>24</v>
       </c>
       <c r="K77" s="4">
-        <v>45366</v>
+        <v>45398</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4578,7 +4578,7 @@
         <v>25</v>
       </c>
       <c r="K78" s="4">
-        <v>45367</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4613,7 +4613,7 @@
         <v>8</v>
       </c>
       <c r="K79" s="4">
-        <v>45368</v>
+        <v>45400</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4648,7 +4648,7 @@
         <v>25</v>
       </c>
       <c r="K80" s="4">
-        <v>45369</v>
+        <v>45401</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4683,7 +4683,7 @@
         <v>24</v>
       </c>
       <c r="K81" s="4">
-        <v>45370</v>
+        <v>45402</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4718,7 +4718,7 @@
         <v>8</v>
       </c>
       <c r="K82" s="4">
-        <v>45371</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4753,7 +4753,7 @@
         <v>25</v>
       </c>
       <c r="K83" s="4">
-        <v>45372</v>
+        <v>45404</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4788,7 +4788,7 @@
         <v>27</v>
       </c>
       <c r="K84" s="4">
-        <v>45373</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4823,7 +4823,7 @@
         <v>8</v>
       </c>
       <c r="K85" s="4">
-        <v>45374</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4858,7 +4858,7 @@
         <v>25</v>
       </c>
       <c r="K86" s="4">
-        <v>45375</v>
+        <v>45407</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4893,7 +4893,7 @@
         <v>8</v>
       </c>
       <c r="K87" s="4">
-        <v>45376</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4928,7 +4928,7 @@
         <v>26</v>
       </c>
       <c r="K88" s="4">
-        <v>45377</v>
+        <v>45409</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4963,7 +4963,7 @@
         <v>25</v>
       </c>
       <c r="K89" s="4">
-        <v>45378</v>
+        <v>45410</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -4998,7 +4998,7 @@
         <v>8</v>
       </c>
       <c r="K90" s="4">
-        <v>45379</v>
+        <v>45411</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -5033,7 +5033,7 @@
         <v>25</v>
       </c>
       <c r="K91" s="4">
-        <v>45380</v>
+        <v>45412</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -5068,7 +5068,7 @@
         <v>25</v>
       </c>
       <c r="K92" s="4">
-        <v>45381</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -5103,7 +5103,7 @@
         <v>8</v>
       </c>
       <c r="K93" s="4">
-        <v>45382</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -5138,7 +5138,7 @@
         <v>25</v>
       </c>
       <c r="K94" s="4">
-        <v>45383</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -5173,7 +5173,7 @@
         <v>24</v>
       </c>
       <c r="K95" s="4">
-        <v>45384</v>
+        <v>45416</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -5208,7 +5208,7 @@
         <v>8</v>
       </c>
       <c r="K96" s="4">
-        <v>45385</v>
+        <v>45417</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -5243,7 +5243,7 @@
         <v>22</v>
       </c>
       <c r="K97" s="4">
-        <v>45386</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -5278,7 +5278,7 @@
         <v>24</v>
       </c>
       <c r="K98" s="4">
-        <v>45387</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -5313,7 +5313,7 @@
         <v>26</v>
       </c>
       <c r="K99" s="4">
-        <v>45388</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -5348,7 +5348,7 @@
         <v>8</v>
       </c>
       <c r="K100" s="4">
-        <v>45389</v>
+        <v>45421</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -5383,7 +5383,7 @@
         <v>25</v>
       </c>
       <c r="K101" s="4">
-        <v>45390</v>
+        <v>45422</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
